--- a/Robotic systems experiment results.xlsx
+++ b/Robotic systems experiment results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilmonette/Desktop/UoB 2021-2022/Master - Biorobotique/Q1/Robotics Systems/BarCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3035836-A2C2-7D48-B578-47FD695B6C63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B92D03-A741-1446-8BF0-B990652ECF17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{DF4999F7-CE5E-4BB5-A1D4-0A6A0828BBF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{DF4999F7-CE5E-4BB5-A1D4-0A6A0828BBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,90 +20,38 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$2:$AC$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$B$92</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$109:$A$128</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$109:$B$128</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$69:$I$88</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$N$3:$N$22</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$69:$H$88</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$69:$I$88</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$N$3:$N$22</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$69:$H$88</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$I$69:$I$88</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$3:$N$22</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$109:$A$128</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$109:$B$128</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$69:$C$88</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$109:$D$128</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$109</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$E$109:$E$128</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$109:$D$128</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$E$69:$E$88</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$69:$F$88</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$H$69:$H$88</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$I$69:$I$88</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$N$3:$N$22</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$69:$C$88</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$E$69:$E$88</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$F$69:$F$88</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$109:$A$128</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$109:$B$128</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$D$109:$D$128</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$E$109:$E$128</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$109:$E$128</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$96:$B$105</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$H$96:$H$105</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$AH$21:$AH$36</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$AH$3:$AH$18</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$AK$21:$AK$36</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$AK$3:$AK$18</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$AN$21:$AN$36</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$AN$3:$AN$18</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$AQ$21:$AQ$36</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$AQ$3:$AQ$18</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$AT$21:$AT$36</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$AW$21:$AW$36</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$C$69:$C$88</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$E$69:$E$88</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$F$69:$F$88</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$B$96:$B$105</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$H$96:$H$105</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$P$27:$P$46</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$Q$27:$Q$46</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$R$27:$R$46</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$S$27:$S$46</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$T$27:$T$46</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$B$69:$B$88</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$C$69:$C$88</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$D$69:$D$88</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$E$69:$E$88</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$F$69:$F$88</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$G$69:$G$88</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$B$96:$B$105</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$H$96:$H$105</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$69:$H$88</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$P$27:$P$46</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$27:$Q$46</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AH$21:$AH$36</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AH$3:$AH$18</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AK$21:$AK$36</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AK$3:$AK$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AN$21:$AN$36</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AN$3:$AN$18</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AQ$21:$AQ$36</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AQ$3:$AQ$18</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AT$21:$AT$36</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AW$21:$AW$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$R$27:$R$46</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$96:$B$105</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$H$96:$H$105</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$69:$B$88</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$69:$D$88</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$G$69:$G$88</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$H$69:$H$88</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$I$69:$I$88</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$69:$B$88</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$D$69:$D$88</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$69:$G$88</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$S$27:$S$46</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$69:$H$88</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$I$69:$I$88</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$T$27:$T$46</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$69:$B$88</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$69:$C$88</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$69:$D$88</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$69:$E$88</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$69:$F$88</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -561,11 +509,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,60 +1672,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Comparison between bits read at 12 mm and simulated theoretical limits</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1815,68 +1710,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$69:$B$88</c:f>
+              <c:f>(Sheet1!$B$69,Sheet1!$B$73,Sheet1!$B$77,Sheet1!$B$82,Sheet1!$B$86)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
@@ -1884,69 +1734,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$69:$D$88</c:f>
+              <c:f>(Sheet1!$D$70,Sheet1!$D$75,Sheet1!$D$77,Sheet1!$D$83,Sheet1!$D$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1767,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Max bit with velocity shift only</c:v>
+            <c:v>Max bit with spatial lag only</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2064,64 +1869,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21.722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>21.722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>21.722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>21.722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.727272727272728</c:v>
+                  <c:v>12.227272727272728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.727272727272728</c:v>
+                  <c:v>12.227272727272728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.727272727272728</c:v>
+                  <c:v>12.227272727272728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.727272727272728</c:v>
+                  <c:v>12.227272727272728</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>8.7307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>8.7307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.473684210526315</c:v>
+                  <c:v>8.7307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.473684210526315</c:v>
+                  <c:v>8.7307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.596774193548387</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.596774193548387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5862068965517242</c:v>
+                  <c:v>6.596774193548387</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5862068965517242</c:v>
+                  <c:v>6.5967741935483897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +1942,7 @@
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Max bit with spatial shift only</c:v>
+            <c:v>Max bit with temporal lag only</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2318,7 +2123,7 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Max bit with both shifts (constructive)</c:v>
+            <c:v>Max bit with both lags (constructive)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2516,7 +2321,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2529,7 +2334,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1400" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2552,7 +2357,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2590,7 +2395,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2610,6 +2415,7 @@
         <c:axId val="1198199807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2634,7 +2440,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2647,7 +2453,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1400" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2670,7 +2476,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2702,7 +2508,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2727,7 +2533,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2741,7 +2547,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2812,64 +2618,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Normalised bit sampling positions over runs at different speeds, at constant bit width (16 mm)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10219260065814342"/>
-          <c:y val="4.2164450653648586E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3681,7 +3430,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3691,14 +3440,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Bit</a:t>
+                  <a:rPr lang="fr-FR" sz="1300" baseline="0"/>
+                  <a:t>Bit number</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> number</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3706,8 +3450,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4192817212658882"/>
-              <c:y val="0.93196052079404623"/>
+              <c:x val="0.47383857338930302"/>
+              <c:y val="0.93196062407822167"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3723,7 +3467,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3758,7 +3502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3804,7 +3548,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3814,12 +3558,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Normalised bit sampling position</a:t>
+                  <a:rPr lang="fr-FR" sz="1300" baseline="0"/>
+                  <a:t>Sampling Position Score (SPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0004166938138151E-2"/>
+              <c:y val="0.34060252538768515"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3833,7 +3585,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3868,7 +3620,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3926,17 +3678,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.86127749762418426"/>
-          <c:y val="0.44493145676074325"/>
-          <c:w val="0.11767472931721383"/>
-          <c:h val="0.23710808087783508"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3950,7 +3692,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5144,10 +4886,24 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5156,7 +4912,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Normalised bit sampling position</a:t>
+                  <a:t>Sampling Position Score (SPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5173,10 +4929,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5366,72 +5136,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Normalised bit sampling positions over runs at different speeds, at constant bit width (8</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>mm)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10219260065814342"/>
-          <c:y val="4.2164450653648586E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6243,7 +5948,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6253,14 +5958,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Bit</a:t>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
+                  <a:t>Bit number</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> number</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6268,8 +5968,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4192817212658882"/>
-              <c:y val="0.93196052079404623"/>
+              <c:x val="0.48450717480460798"/>
+              <c:y val="0.9347654103507802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6285,7 +5985,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -6320,7 +6020,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6365,10 +6065,24 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6376,8 +6090,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Normalised bit sampling position</a:t>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
+                  <a:t>Sampling Position Score (SPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6394,10 +6108,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6430,7 +6158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6488,15 +6216,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86127749762418426"/>
-          <c:y val="0.44493145676074325"/>
-          <c:w val="0.11767472931721383"/>
-          <c:h val="0.23710808087783508"/>
+          <c:x val="0.11604863692731973"/>
+          <c:y val="3.08542724222437E-2"/>
+          <c:w val="0.83756352475120643"/>
+          <c:h val="6.389966472493018E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6512,7 +6240,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7024,10 +6752,24 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7036,7 +6778,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Normalised bit sampling position</a:t>
+                  <a:t>Sampling Position Score (SPS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7053,10 +6795,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7237,74 +6993,46 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Number of bits read for different bit sizes</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Number of bits read for different bit sizes</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{66DC55B5-8AB7-2D4B-B594-F444F5AC9198}" formatIdx="0">
@@ -7386,15 +7114,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -7404,9 +7133,28 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="45"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -7418,15 +7166,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -7437,9 +7186,48 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -7449,66 +7237,38 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Number of bits read at different hover speeds</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Number of bits read at different hover speeds</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{65D689C4-7420-B844-A3F2-66C5AA322F35}" formatIdx="0">
@@ -7577,15 +7337,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1300" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fr-FR" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -7595,6 +7356,25 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -7609,15 +7389,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1300" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fr-FR" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -7628,9 +7409,55 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -7640,55 +7467,14 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Relative error in real speed at different hover speeds</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Relative error in real speed at different hover speeds</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{6A87F342-4EB0-E84C-8DAC-84ED079C1497}">
@@ -7704,7 +7490,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Hover speed (mm/s)</cx:v>
+              <cx:v>Expected hover speed (mm/s)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -7721,7 +7507,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Hover speed (mm/s)</a:t>
+                <a:t>Expected hover speed (mm/s)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -7830,34 +7616,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13543,16 +13329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>319229</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>14151</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1020379</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85395</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>283780</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28964</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -13588,8 +13374,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="32280896" y="7104984"/>
-              <a:ext cx="8829150" cy="5786244"/>
+              <a:off x="28308300" y="10985500"/>
+              <a:ext cx="9656380" cy="6213864"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13666,8 +13452,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10730728" y="12064100"/>
-              <a:ext cx="6801429" cy="4456547"/>
+              <a:off x="10709561" y="12326567"/>
+              <a:ext cx="6792963" cy="4558147"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13744,8 +13530,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10772043" y="17015105"/>
-              <a:ext cx="6041470" cy="4649823"/>
+              <a:off x="10755110" y="16998172"/>
+              <a:ext cx="6033003" cy="4649823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13822,8 +13608,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19942736" y="4528421"/>
-              <a:ext cx="7497978" cy="4616825"/>
+              <a:off x="19930036" y="4511488"/>
+              <a:ext cx="7506445" cy="4616825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13855,16 +13641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>203199</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>439478</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:colOff>1040976</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13897,15 +13683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>188932</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>111848</xdr:rowOff>
+      <xdr:colOff>506433</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1596349</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>172171</xdr:rowOff>
+      <xdr:colOff>1693335</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13933,15 +13719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>30238</xdr:rowOff>
+      <xdr:colOff>30239</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1513251</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>90562</xdr:rowOff>
+      <xdr:colOff>1437656</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>166157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13970,16 +13756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1632856</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166310</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>31582</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>30086</xdr:rowOff>
+      <xdr:colOff>485154</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>105681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14009,15 +13795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>60476</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:colOff>30238</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>30237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>167655</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>196395</xdr:rowOff>
+      <xdr:colOff>137417</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>90561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14346,8 +14132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F4F926-81D6-4168-96C5-3696D3E8EAD3}">
   <dimension ref="A2:AX105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="75" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="N53" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16689,12 +16475,12 @@
       </c>
     </row>
     <row r="25" spans="2:50">
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
       <c r="AH25" s="11">
         <v>8</v>
       </c>
@@ -17631,12 +17417,12 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="1" t="s">
         <v>69</v>
       </c>
@@ -17685,8 +17471,8 @@
         <v>24</v>
       </c>
       <c r="G69" s="1">
-        <f>-1/2*1/G96*B69</f>
-        <v>30</v>
+        <f>-1/2*1/G96*F96</f>
+        <v>29.5</v>
       </c>
       <c r="H69">
         <v>31</v>
@@ -17718,8 +17504,8 @@
         <v>18</v>
       </c>
       <c r="G70" s="1">
-        <f>-1/2*1/G96*B70</f>
-        <v>30</v>
+        <f>-1/2*1/G97*F97</f>
+        <v>29.5</v>
       </c>
       <c r="H70">
         <v>31</v>
@@ -17751,8 +17537,8 @@
         <v>3</v>
       </c>
       <c r="G71" s="1">
-        <f>-1/2*1/G97*B71</f>
-        <v>30</v>
+        <f>-1/2*1/G97*F97</f>
+        <v>29.5</v>
       </c>
       <c r="H71">
         <v>31</v>
@@ -17784,8 +17570,8 @@
         <v>3</v>
       </c>
       <c r="G72" s="1">
-        <f>-1/2*1/G97*B72</f>
-        <v>30</v>
+        <f>-1/2*1/G97*F97</f>
+        <v>29.5</v>
       </c>
       <c r="H72">
         <v>31</v>
@@ -17817,8 +17603,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="1">
-        <f>-1/2*1/G98*B73</f>
-        <v>20</v>
+        <v>21.722222222222221</v>
       </c>
       <c r="H73">
         <v>47</v>
@@ -17850,8 +17635,8 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f>-1/2*1/G98*B74</f>
-        <v>20</v>
+        <f>-1/2*1/AVERAGEA(G98:G99)*AVERAGEA(F98:F99)</f>
+        <v>21.722222222222221</v>
       </c>
       <c r="H74">
         <v>47</v>
@@ -17883,8 +17668,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f>-1/2*1/G99*B75</f>
-        <v>25</v>
+        <v>21.722222222222221</v>
       </c>
       <c r="H75">
         <v>47</v>
@@ -17916,8 +17700,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f>-1/2*1/G99*B76</f>
-        <v>25</v>
+        <v>21.722222222222221</v>
       </c>
       <c r="H76">
         <v>47</v>
@@ -17949,8 +17732,8 @@
         <v>3</v>
       </c>
       <c r="G77" s="1">
-        <f>-1/2*1/G100*B77</f>
-        <v>12.727272727272728</v>
+        <f>-1/2*1/G100*F100</f>
+        <v>12.227272727272728</v>
       </c>
       <c r="H77">
         <v>87</v>
@@ -17982,8 +17765,8 @@
         <v>3</v>
       </c>
       <c r="G78" s="1">
-        <f>-1/2*1/AVERAGEA(G100:G101)*B78</f>
-        <v>12.727272727272728</v>
+        <f>-1/2*1/AVERAGEA(G100:G101)*F100</f>
+        <v>12.227272727272728</v>
       </c>
       <c r="H78">
         <v>87</v>
@@ -18015,8 +17798,8 @@
         <v>3</v>
       </c>
       <c r="G79" s="1">
-        <f>-1/2*1/AVERAGEA(G101:G101)*B79</f>
-        <v>12.727272727272728</v>
+        <f>-1/2*1/AVERAGEA(G101:G101)*F101</f>
+        <v>12.227272727272728</v>
       </c>
       <c r="H79">
         <v>87</v>
@@ -18048,8 +17831,8 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f>-1/2*1/AVERAGEA(G100:G101)*B80</f>
-        <v>12.727272727272728</v>
+        <f>-1/2*1/AVERAGEA(G100:G101)*F101</f>
+        <v>12.227272727272728</v>
       </c>
       <c r="H80">
         <v>87</v>
@@ -18081,8 +17864,8 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>-1/2*1/G102*B81</f>
-        <v>9</v>
+        <f>-1/2*1/AVERAGEA(G102:G103)*AVERAGEA(F102:F103)</f>
+        <v>8.7307692307692299</v>
       </c>
       <c r="H81">
         <v>26</v>
@@ -18114,8 +17897,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f>-1/2*1/G102*B82</f>
-        <v>9</v>
+        <v>8.7307692307692299</v>
       </c>
       <c r="H82">
         <v>26</v>
@@ -18147,8 +17929,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="1">
-        <f>-1/2*1/G103*B83</f>
-        <v>9.473684210526315</v>
+        <v>8.7307692307692299</v>
       </c>
       <c r="H83">
         <v>26</v>
@@ -18180,8 +17961,7 @@
         <v>7</v>
       </c>
       <c r="G84" s="1">
-        <f>-1/2*1/G103*B84</f>
-        <v>9.473684210526315</v>
+        <v>8.7307692307692299</v>
       </c>
       <c r="H84">
         <v>26</v>
@@ -18213,8 +17993,8 @@
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f>-1/2*1/G104*B85</f>
-        <v>6.666666666666667</v>
+        <f>-1/2*1/AVERAGEA(G104:G105)*AVERAGEA(F104:F105)</f>
+        <v>6.596774193548387</v>
       </c>
       <c r="H85">
         <v>14</v>
@@ -18246,8 +18026,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f>-1/2*1/G104*B86</f>
-        <v>6.666666666666667</v>
+        <v>6.596774193548387</v>
       </c>
       <c r="H86">
         <v>14</v>
@@ -18279,8 +18058,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="1">
-        <f>-1/2*1/G105*B87</f>
-        <v>7.5862068965517242</v>
+        <v>6.596774193548387</v>
       </c>
       <c r="H87">
         <v>14</v>
@@ -18312,8 +18090,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="1">
-        <f>-1/2*1/G105*B88</f>
-        <v>7.5862068965517242</v>
+        <v>6.5967741935483897</v>
       </c>
       <c r="H88">
         <v>14</v>
@@ -18392,7 +18169,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" ref="F96:F105" si="3">D97/E97</f>
+        <f t="shared" ref="F97:F105" si="3">D97/E97</f>
         <v>59</v>
       </c>
       <c r="G97" s="1">
@@ -18400,7 +18177,7 @@
         <v>-1</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" ref="H96:H105" si="5">G97/B97*100</f>
+        <f t="shared" ref="H97:H105" si="5">G97/B97*100</f>
         <v>-1.6666666666666667</v>
       </c>
     </row>
@@ -19089,8 +18866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0D9C93-3340-4870-B46B-309C531D51F6}">
   <dimension ref="B1:AZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19147,7 +18924,7 @@
       <c r="AO2" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AR2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="AY2" t="s">
